--- a/DokkanKits/125.xlsx
+++ b/DokkanKits/125.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\DokkanKits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30820384-4FF8-4B3F-9C01-C21839FD328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD61A89A-05D3-4AC5-BC7C-6D474D3F844A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3893" yWindow="803" windowWidth="11362" windowHeight="14152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>Attribute\Turn</t>
   </si>
@@ -176,15 +176,9 @@
     <t>Link 1</t>
   </si>
   <si>
-    <t>Golden Warrior</t>
-  </si>
-  <si>
     <t>Link 2</t>
   </si>
   <si>
-    <t>Saiyan Warrior Race</t>
-  </si>
-  <si>
     <t>Link 3</t>
   </si>
   <si>
@@ -194,9 +188,6 @@
     <t>Link 4</t>
   </si>
   <si>
-    <t>Kamehameha</t>
-  </si>
-  <si>
     <t>Link 5</t>
   </si>
   <si>
@@ -293,18 +284,6 @@
     <t>Dmg Red Normal</t>
   </si>
   <si>
-    <t>Goku</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>Immense</t>
-  </si>
-  <si>
     <t>Active Skill Turn</t>
   </si>
   <si>
@@ -321,6 +300,39 @@
   </si>
   <si>
     <t>Mega-Colossal</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>Super Saiyan 2 Caulifla &amp; Super Saiyan 2 Kale</t>
+  </si>
+  <si>
+    <t>AGL</t>
+  </si>
+  <si>
+    <t>Colossal</t>
+  </si>
+  <si>
+    <t>Battlefield Diva</t>
+  </si>
+  <si>
+    <t>Warriors of Universe 6</t>
+  </si>
+  <si>
+    <t>Tournament of Power</t>
+  </si>
+  <si>
+    <t>[0.5,0.38]</t>
+  </si>
+  <si>
+    <t>[1,0]</t>
+  </si>
+  <si>
+    <t>[0.5,0.387728,0.38]</t>
+  </si>
+  <si>
+    <t>[1,0,0]</t>
   </si>
 </sst>
 </file>
@@ -884,6 +896,21 @@
         <row r="7">
           <cell r="B7">
             <v>1</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>0.34375</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="D67">
+            <v>0.38772799999999996</v>
           </cell>
         </row>
       </sheetData>
@@ -1181,7 +1208,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1192,7 +1219,7 @@
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1238,13 +1265,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
@@ -1252,7 +1279,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -1260,7 +1287,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -1276,7 +1303,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
@@ -1284,7 +1311,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
@@ -1292,7 +1319,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="1">
-        <v>44927</v>
+        <v>45017</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -1300,7 +1327,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>44927</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
@@ -1308,7 +1335,7 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>15000</v>
+        <v>15020</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1319,7 +1346,7 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>9000</v>
+        <v>9763</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
@@ -1327,7 +1354,8 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <f>0.125</f>
+        <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
@@ -1335,7 +1363,7 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
@@ -1343,7 +1371,8 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <f>0.25</f>
+        <v>0.25</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1365,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1379,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1403,7 +1432,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1411,7 +1440,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1419,7 +1448,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1427,7 +1456,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1441,7 +1470,8 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <f>1.3+0.66*[1]Sheet1!$D$67+0.1*(3+2+2+1+1+1+1)</f>
+        <v>2.6559004800000001</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
@@ -1452,7 +1482,8 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <f>1.3+0.66*[1]Sheet1!$D$67</f>
+        <v>1.55590048</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
@@ -1530,7 +1561,8 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <f>0.3</f>
+        <v>0.3</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -1555,7 +1587,8 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <f>0.3</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
@@ -1566,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
@@ -1602,7 +1635,8 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <f>0.3</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
@@ -1613,15 +1647,18 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B38">
         <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
@@ -1632,132 +1669,159 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B50">
         <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <f>3+1+1+[1]Sheet1!$B$34+[1]Sheet1!$B$35+0.75</f>
+        <v>6.1437499999999998</v>
+      </c>
+      <c r="E52">
+        <f>9</f>
+        <v>9</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -1765,7 +1829,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1781,7 +1845,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1792,7 +1856,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1809,7 +1873,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1826,7 +1890,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1840,7 +1904,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1851,7 +1915,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1862,13 +1926,26 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <f>0.06*(1+1+[1]Sheet1!$B$34+[1]Sheet1!$B$35+0.75)</f>
+        <v>0.18862499999999999</v>
+      </c>
+      <c r="D60">
+        <f>C60+0.06*(1+1+[1]Sheet1!$D$67+[1]Sheet1!$B$34+[1]Sheet1!$B$35+0.75)</f>
+        <v>0.40051367999999998</v>
+      </c>
+      <c r="E60">
+        <f>D60+0.06*(1+1+[1]Sheet1!$D$67+[1]Sheet1!$B$34+[1]Sheet1!$B$35+0.75)</f>
+        <v>0.61240235999999992</v>
+      </c>
+      <c r="F60">
+        <f>0.66</f>
+        <v>0.66</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -1876,7 +1953,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1887,7 +1964,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1898,7 +1975,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1912,35 +1989,41 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>95</v>
+      </c>
+      <c r="D64" t="s">
+        <v>97</v>
       </c>
       <c r="M64" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>96</v>
+      </c>
+      <c r="D65" t="s">
+        <v>98</v>
       </c>
       <c r="M65" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1954,7 +2037,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B67">
         <v>1</v>
